--- a/biology/Médecine/Manœuvre_de_Epley/Manœuvre_de_Epley.xlsx
+++ b/biology/Médecine/Manœuvre_de_Epley/Manœuvre_de_Epley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man%C5%93uvre_de_Epley</t>
+          <t>Manœuvre_de_Epley</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La manœuvre d'Epley est un geste thérapeutique conçu pour soulager le vertige paroxystique positionnel bénin[1]. Elle porte le nom du Dr John Epley qui l'a décrite et développée pour la première fois en 1980[2]. Le geste est effectué par un médecin, un chiropraticien, un ostéopathe ou un physiothérapeute (kinésithérapeute en France), après confirmation d'un diagnostic de vertige paroxystique positionnel bénin (VPPB) par le test de Dix et Hallpike.
-Les physiothérapeutes et les chiropraticiens utilisent aujourd'hui une version de la manœuvre dite « manœuvre d'Epley modifiée » qui ne comprend plus les vibrations de l'apophyse mastoïde préconisées par Epley, car il a été démontré depuis qu'elles n'amélioraient pas l'efficacité du traitement[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La manœuvre d'Epley est un geste thérapeutique conçu pour soulager le vertige paroxystique positionnel bénin. Elle porte le nom du Dr John Epley qui l'a décrite et développée pour la première fois en 1980. Le geste est effectué par un médecin, un chiropraticien, un ostéopathe ou un physiothérapeute (kinésithérapeute en France), après confirmation d'un diagnostic de vertige paroxystique positionnel bénin (VPPB) par le test de Dix et Hallpike.
+Les physiothérapeutes et les chiropraticiens utilisent aujourd'hui une version de la manœuvre dite « manœuvre d'Epley modifiée » qui ne comprend plus les vibrations de l'apophyse mastoïde préconisées par Epley, car il a été démontré depuis qu'elles n'amélioraient pas l'efficacité du traitement.
 Il existe d'autres techniques de traitement par kinésithérapie : manœuvre libératoire de Sémont, entraînement de Norré, manœuvre de Lempert, etc.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man%C5%93uvre_de_Epley</t>
+          <t>Manœuvre_de_Epley</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description et effets de la manœuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La manœuvre consiste en un enchaînement de positions :
 le patient commence dans une posture assise droite, avec les jambes complètement étendues et la tête tournée à 45 degrés vers le côté affecté ;
